--- a/WIXWAVITYPROJECT/TestData.xlsx
+++ b/WIXWAVITYPROJECT/TestData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PollsData" sheetId="1" r:id="rId1"/>
     <sheet name="appsData" sheetId="2" r:id="rId2"/>
     <sheet name="NewType" sheetId="3" r:id="rId3"/>
     <sheet name="NewAppSheet" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="CreateAnAppWithTextNumber" sheetId="7" r:id="rId5"/>
+    <sheet name="CreateAnAppWithNumbers" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="237">
   <si>
     <t>PollName</t>
   </si>
@@ -178,36 +179,6 @@
     <t>Required</t>
   </si>
   <si>
-    <t>Help Message</t>
-  </si>
-  <si>
-    <t>Input Field Type</t>
-  </si>
-  <si>
-    <t>Place Holder</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Max length</t>
-  </si>
-  <si>
-    <t>Alphabet</t>
-  </si>
-  <si>
-    <t>Alphanumeric</t>
-  </si>
-  <si>
-    <t>Enter Company name</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>X-Company</t>
-  </si>
-  <si>
     <t>Validation</t>
   </si>
   <si>
@@ -247,30 +218,15 @@
     <t>Canada</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Record Should Be Saved</t>
-  </si>
-  <si>
     <t>Please enter a value</t>
   </si>
   <si>
-    <t>required;NO</t>
-  </si>
-  <si>
-    <t>required;YES</t>
-  </si>
-  <si>
     <t>Plain</t>
   </si>
   <si>
-    <t>hint;Enter Employee Name</t>
-  </si>
-  <si>
     <t>WAVE511211</t>
   </si>
   <si>
@@ -280,9 +236,6 @@
     <t>RED1234</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Wavity Employee Profile</t>
   </si>
   <si>
@@ -472,26 +425,323 @@
     <t>PROPERTIES VALIDATION</t>
   </si>
   <si>
-    <t>11211</t>
-  </si>
-  <si>
-    <t>21211</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>934</t>
+    <t>Text Block</t>
+  </si>
+  <si>
+    <t>Two Fields</t>
+  </si>
+  <si>
+    <t>Three Fields</t>
+  </si>
+  <si>
+    <t>Auto ID</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Single Slider</t>
+  </si>
+  <si>
+    <t>Slider Range</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>QR Code</t>
+  </si>
+  <si>
+    <t>eSignature</t>
+  </si>
+  <si>
+    <t>GeoLocation</t>
+  </si>
+  <si>
+    <t>Geo Coordinate</t>
+  </si>
+  <si>
+    <t>Attachments</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>Date &amp; Time</t>
+  </si>
+  <si>
+    <t>Date &amp; Time Range</t>
+  </si>
+  <si>
+    <t>Days Of Week</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Time Range</t>
+  </si>
+  <si>
+    <t>Time Interval</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Property Set</t>
+  </si>
+  <si>
+    <t>Deprecated;Required</t>
+  </si>
+  <si>
+    <t>Required;Deprecated</t>
+  </si>
+  <si>
+    <t>Record1</t>
+  </si>
+  <si>
+    <t>Record2</t>
+  </si>
+  <si>
+    <t>Record3</t>
+  </si>
+  <si>
+    <t>Record4</t>
+  </si>
+  <si>
+    <t>Record5</t>
+  </si>
+  <si>
+    <t>MLA</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>Employee Description</t>
+  </si>
+  <si>
+    <t>Employee  Phone Numbers</t>
+  </si>
+  <si>
+    <t>Employee Job Role &amp; Experience</t>
+  </si>
+  <si>
+    <t>I am Test Engineer</t>
+  </si>
+  <si>
+    <t>I am Railway police</t>
+  </si>
+  <si>
+    <t>I am Friend</t>
+  </si>
+  <si>
+    <t>CA Guy</t>
+  </si>
+  <si>
+    <t>Topper Of The Batch</t>
+  </si>
+  <si>
+    <t>9440829612;6300981672</t>
+  </si>
+  <si>
+    <t>9030446812;6300981672</t>
+  </si>
+  <si>
+    <t>7878789090;8989899090</t>
+  </si>
+  <si>
+    <t>6789067890;9087687690</t>
+  </si>
+  <si>
+    <t>7890789078;8908908908</t>
+  </si>
+  <si>
+    <t>QA;2YEARS;WAVITY</t>
+  </si>
+  <si>
+    <t>POLICE;1YEAR;RAILWAYS</t>
+  </si>
+  <si>
+    <t>Friend;4YEARS;RxCurrencyExchange</t>
+  </si>
+  <si>
+    <t>CA;4YEARS;CA National</t>
+  </si>
+  <si>
+    <t>INTER;NO Experience;Narayana College</t>
+  </si>
+  <si>
+    <t>Record6</t>
+  </si>
+  <si>
+    <t>Record7</t>
+  </si>
+  <si>
+    <t>Batch ID</t>
+  </si>
+  <si>
+    <t>User Code</t>
+  </si>
+  <si>
+    <t>Amount Paid</t>
+  </si>
+  <si>
+    <t>Pending Amount</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>12346</t>
+  </si>
+  <si>
+    <t>12347</t>
+  </si>
+  <si>
+    <t>12348</t>
+  </si>
+  <si>
+    <t>5678</t>
+  </si>
+  <si>
+    <t>5679</t>
+  </si>
+  <si>
+    <t>5680</t>
+  </si>
+  <si>
+    <t>5681</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,6 +808,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -613,7 +870,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -625,7 +882,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -639,7 +895,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -691,7 +946,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1094,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1118,12 +1378,12 @@
         <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -1135,12 +1395,12 @@
         <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1152,12 +1412,12 @@
         <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1169,12 +1429,12 @@
         <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1186,12 +1446,12 @@
         <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1202,7 +1462,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="22"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="15.75">
@@ -1212,29 +1472,14 @@
       <c r="B7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75">
@@ -1244,14 +1489,14 @@
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>46</v>
+      <c r="C8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75">
@@ -1259,25 +1504,17 @@
         <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+        <v>179</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="5" t="s">
@@ -1286,24 +1523,14 @@
       <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>48</v>
+      <c r="C10" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75">
@@ -1313,185 +1540,406 @@
       <c r="B11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>49</v>
+      <c r="C11" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>136</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75">
-      <c r="A22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75">
+      <c r="D12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75">
+      <c r="A20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75">
+      <c r="D23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75">
+      <c r="D24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75">
       <c r="A25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75">
+        <v>168</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75">
       <c r="A26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75">
+        <v>169</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
       <c r="A27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+        <v>170</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="A34" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1530,19 +1978,19 @@
       <c r="D1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>39</v>
@@ -1550,19 +1998,19 @@
       <c r="D2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>39</v>
@@ -1571,18 +2019,18 @@
         <v>35</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>39</v>
@@ -1590,19 +2038,19 @@
       <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>39</v>
@@ -1610,24 +2058,24 @@
       <c r="D5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="10" t="s">
@@ -1643,221 +2091,221 @@
         <v>43</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="E8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>90</v>
+      <c r="E9" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="31.5">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>92</v>
+      <c r="E10" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="13"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" ht="31.5">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>93</v>
+      <c r="E11" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="15"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="10" t="s">
@@ -1867,7 +2315,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>48</v>
@@ -1875,169 +2323,169 @@
       <c r="E22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" ht="15.75">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" ht="15.75">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="C27" s="12"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>75</v>
+        <v>51</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>95</v>
+        <v>78</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="15"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="15"/>
+      <c r="A34" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2049,7 +2497,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2066,898 +2514,898 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="55" t="s">
-        <v>145</v>
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="53" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+    </row>
+    <row r="8" spans="1:9" s="23" customFormat="1">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A10" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" ht="12" customHeight="1">
+      <c r="A13" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="F36" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" s="25" customFormat="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A10" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A11" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:9" ht="12" customHeight="1">
-      <c r="A13" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="45" t="s">
+      <c r="G36" s="27"/>
+      <c r="H36" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="27"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="45" t="s">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="27"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="45" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="F31" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="29" t="s">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="29"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="29" t="s">
+      <c r="F41" s="37">
+        <v>9440829612</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I38" s="29"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="F39" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I39" s="29"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" s="29"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" s="39">
-        <v>9440829612</v>
-      </c>
-      <c r="G41" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="I41" s="29"/>
+      <c r="H41" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="27"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="51"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="48"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="48"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="48"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="48"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="48"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="48"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="15.75">
-      <c r="A49" s="48"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" ht="15.75">
-      <c r="A50" s="48"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="15.75">
-      <c r="A51" s="48"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="15.75">
-      <c r="A52" s="48"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="15.75">
-      <c r="A53" s="48"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="15.75">
-      <c r="A54" s="48"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="15.75">
-      <c r="A55" s="48"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:4" ht="15.75">
-      <c r="A56" s="48"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="15.75">
-      <c r="A57" s="48"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" ht="15.75">
-      <c r="A58" s="48"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="15.75">
-      <c r="A59" s="48"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="15.75">
-      <c r="A60" s="48"/>
+      <c r="A60" s="46"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="15.75">
-      <c r="A61" s="48"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4" ht="15.75">
-      <c r="A62" s="48"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="15.75">
-      <c r="A63" s="48"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="15.75">
-      <c r="A64" s="48"/>
+      <c r="A64" s="46"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" ht="15.75">
-      <c r="A65" s="48"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" ht="15.75">
-      <c r="A66" s="48"/>
+      <c r="A66" s="46"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" ht="15.75">
-      <c r="A67" s="48"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" ht="15.75">
-      <c r="A68" s="48"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" ht="15.75">
-      <c r="A69" s="48"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4" ht="15.75">
-      <c r="A70" s="48"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="26"/>
+      <c r="A71" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2972,27 +3420,683 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" customWidth="1"/>
+    <col min="8" max="8" width="41.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" customWidth="1"/>
+    <col min="11" max="11" width="41.42578125" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>153</v>
-      </c>
+    <row r="1" spans="1:12" ht="15.75">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="A9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75">
+      <c r="A12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="L12" s="62"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="L13" s="62"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75">
+      <c r="A1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="A7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="A9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
+      <c r="A10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>